--- a/medicine/Mort/Lanterne_des_morts_de_Culhat/Lanterne_des_morts_de_Culhat.xlsx
+++ b/medicine/Mort/Lanterne_des_morts_de_Culhat/Lanterne_des_morts_de_Culhat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lanterne des morts de Culhat est un monument funéraire, situé sur la commune de Culhat, dans le département français du Puy-de-Dôme.
 </t>
@@ -511,9 +523,11 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lanterne, autrefois dans le cimetière, est situé maintenant au nord du bourg[1] de Culhat, dans le département du Puy-de-Dôme, en région Auvergne-Rhône-Alpes, en France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lanterne, autrefois dans le cimetière, est situé maintenant au nord du bourg de Culhat, dans le département du Puy-de-Dôme, en région Auvergne-Rhône-Alpes, en France.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Lanterne des morts de Culhat date du XIIe siècle[2]. Autrefois située à l'intérieur du cimetière de la commune, le monument est déplacé à son emplacement actuel en 1921[2].
-Le monument est classé au titre des monuments historiques par arrêté du 12 juillet 1886[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Lanterne des morts de Culhat date du XIIe siècle. Autrefois située à l'intérieur du cimetière de la commune, le monument est déplacé à son emplacement actuel en 1921.
+Le monument est classé au titre des monuments historiques par arrêté du 12 juillet 1886.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce type de monument est plutôt rare pour la région[1]. La lanterne, de style roman, fait environ 4 mètres de hauteur et est construite en pierre de taille venant d'une carrière locale[2]. Le monument consiste en un socle à sa base, surmonté d'un fut creux sur lequel repose une lanterne à six ouvertures. L'ensemble est coiffé d'une calotte ovoïde surmonté d'une croix[2],[1]. Une ouverture à hauteur d'homme percée dans le fut permettait de hisser une chandelle jusqu'à la hauteur de la lanterne, devenant ainsi un « phare vers le repos éternel pour les défunts »[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de monument est plutôt rare pour la région. La lanterne, de style roman, fait environ 4 mètres de hauteur et est construite en pierre de taille venant d'une carrière locale. Le monument consiste en un socle à sa base, surmonté d'un fut creux sur lequel repose une lanterne à six ouvertures. L'ensemble est coiffé d'une calotte ovoïde surmonté d'une croix,. Une ouverture à hauteur d'homme percée dans le fut permettait de hisser une chandelle jusqu'à la hauteur de la lanterne, devenant ainsi un « phare vers le repos éternel pour les défunts »,.
 </t>
         </is>
       </c>
